--- a/results/I3_N5_M3_T30_C100_DepLowerLeft_s3_P5_res.xlsx
+++ b/results/I3_N5_M3_T30_C100_DepLowerLeft_s3_P5_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>323.3229976553379</v>
+        <v>2081.958923981153</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0149998664855957</v>
+        <v>0.003000020980834961</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>46.22299765533657</v>
+        <v>23.65265368177027</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>8.265616796420925</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>6.571887095804371</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>210.8100000000014</v>
+        <v>1894</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>66.28999999999999</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -580,6 +580,61 @@
         <is>
           <t>alpha</t>
         </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>4</v>
+      </c>
+      <c r="B3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>4</v>
+      </c>
+      <c r="B4" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -623,7 +678,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -634,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -645,7 +700,7 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -656,7 +711,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -667,7 +722,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -689,7 +744,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -700,7 +755,7 @@
         <v>5</v>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -780,7 +835,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -802,7 +857,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -824,7 +879,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -874,7 +929,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>24.22809649842574</v>
+        <v>27.53018219295432</v>
       </c>
     </row>
     <row r="4">
@@ -882,7 +937,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>20</v>
+        <v>24.4246226620485</v>
       </c>
     </row>
     <row r="5">
@@ -898,7 +953,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>23.42811290419563</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7">
@@ -906,7 +961,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>20</v>
+        <v>20.33301651610693</v>
       </c>
     </row>
     <row r="8">
@@ -914,7 +969,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>26.69791430547143</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9">
@@ -922,7 +977,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>25.44155308712504</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10">
@@ -930,7 +985,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -944,7 +999,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -972,6 +1027,286 @@
         <is>
           <t>y</t>
         </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>7</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>7</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>1</v>
+      </c>
+      <c r="B4" t="n">
+        <v>7</v>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" t="n">
+        <v>7</v>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>1</v>
+      </c>
+      <c r="B6" t="n">
+        <v>7</v>
+      </c>
+      <c r="C6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>2</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>2</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>2</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" t="n">
+        <v>3</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>2</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" t="n">
+        <v>4</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>2</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" t="n">
+        <v>5</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>4</v>
+      </c>
+      <c r="B12" t="n">
+        <v>5</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>4</v>
+      </c>
+      <c r="B13" t="n">
+        <v>5</v>
+      </c>
+      <c r="C13" t="n">
+        <v>2</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>4</v>
+      </c>
+      <c r="B14" t="n">
+        <v>5</v>
+      </c>
+      <c r="C14" t="n">
+        <v>3</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>4</v>
+      </c>
+      <c r="B15" t="n">
+        <v>5</v>
+      </c>
+      <c r="C15" t="n">
+        <v>4</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>4</v>
+      </c>
+      <c r="B16" t="n">
+        <v>5</v>
+      </c>
+      <c r="C16" t="n">
+        <v>5</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>5</v>
+      </c>
+      <c r="B17" t="n">
+        <v>2</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>5</v>
+      </c>
+      <c r="B18" t="n">
+        <v>2</v>
+      </c>
+      <c r="C18" t="n">
+        <v>2</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>5</v>
+      </c>
+      <c r="B19" t="n">
+        <v>2</v>
+      </c>
+      <c r="C19" t="n">
+        <v>3</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>5</v>
+      </c>
+      <c r="B20" t="n">
+        <v>2</v>
+      </c>
+      <c r="C20" t="n">
+        <v>4</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>5</v>
+      </c>
+      <c r="B21" t="n">
+        <v>2</v>
+      </c>
+      <c r="C21" t="n">
+        <v>5</v>
+      </c>
+      <c r="D21" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1073,7 +1408,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>111.695</v>
+        <v>283</v>
       </c>
     </row>
     <row r="8">
@@ -1084,7 +1419,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>104.885</v>
+        <v>307</v>
       </c>
     </row>
     <row r="9">
@@ -1095,7 +1430,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>111.735</v>
+        <v>286</v>
       </c>
     </row>
     <row r="10">
@@ -1106,7 +1441,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>119.5</v>
+        <v>290</v>
       </c>
     </row>
     <row r="11">
@@ -1117,7 +1452,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>114.685</v>
+        <v>281</v>
       </c>
     </row>
     <row r="12">
@@ -1128,7 +1463,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>85.68999999999978</v>
+        <v>215</v>
       </c>
     </row>
     <row r="13">
@@ -1139,7 +1474,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>96.85999999999979</v>
+        <v>231</v>
       </c>
     </row>
     <row r="14">
@@ -1150,7 +1485,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>81.12999999999978</v>
+        <v>212</v>
       </c>
     </row>
     <row r="15">
@@ -1161,7 +1496,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>89.87499999999977</v>
+        <v>221</v>
       </c>
     </row>
     <row r="16">
@@ -1172,7 +1507,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>86.53999999999978</v>
+        <v>210</v>
       </c>
     </row>
     <row r="17">
@@ -1183,7 +1518,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>39.68999999999986</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18">
@@ -1194,7 +1529,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>31.57999999999985</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19">
@@ -1205,7 +1540,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>35.61499999999985</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20">
@@ -1216,7 +1551,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>30.71999999999986</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21">
@@ -1227,7 +1562,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>35.40999999999985</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22">
@@ -1238,7 +1573,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>107.0100000000001</v>
+        <v>104</v>
       </c>
     </row>
     <row r="23">
@@ -1249,7 +1584,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>107.7850000000001</v>
+        <v>105</v>
       </c>
     </row>
     <row r="24">
@@ -1260,7 +1595,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>116.8050000000001</v>
+        <v>107</v>
       </c>
     </row>
     <row r="25">
@@ -1271,7 +1606,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>101.3100000000001</v>
+        <v>104</v>
       </c>
     </row>
     <row r="26">
@@ -1282,7 +1617,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>109.9950000000001</v>
+        <v>103</v>
       </c>
     </row>
     <row r="27">
@@ -1293,7 +1628,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>45.97500000000073</v>
+        <v>162</v>
       </c>
     </row>
     <row r="28">
@@ -1304,7 +1639,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>45.44500000000037</v>
+        <v>173</v>
       </c>
     </row>
     <row r="29">
@@ -1315,7 +1650,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>42.36000000000072</v>
+        <v>166</v>
       </c>
     </row>
     <row r="30">
@@ -1326,7 +1661,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>55.32000000000036</v>
+        <v>172</v>
       </c>
     </row>
     <row r="31">
@@ -1337,7 +1672,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>51.5</v>
+        <v>162</v>
       </c>
     </row>
     <row r="32">
@@ -1348,7 +1683,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>111.695</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1359,7 +1694,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>104.885</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1370,7 +1705,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>111.735</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1381,7 +1716,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>119.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1392,7 +1727,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>114.685</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1403,7 +1738,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>85.68999999999978</v>
+        <v>283</v>
       </c>
     </row>
     <row r="38">
@@ -1414,7 +1749,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>96.85999999999979</v>
+        <v>307</v>
       </c>
     </row>
     <row r="39">
@@ -1425,7 +1760,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>81.12999999999978</v>
+        <v>286</v>
       </c>
     </row>
     <row r="40">
@@ -1436,7 +1771,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>89.87499999999977</v>
+        <v>290</v>
       </c>
     </row>
     <row r="41">
@@ -1447,7 +1782,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>86.53999999999978</v>
+        <v>281</v>
       </c>
     </row>
     <row r="42">
@@ -1458,7 +1793,7 @@
         <v>1</v>
       </c>
       <c r="C42" t="n">
-        <v>107.0100000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1469,7 +1804,7 @@
         <v>2</v>
       </c>
       <c r="C43" t="n">
-        <v>107.7850000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1480,7 +1815,7 @@
         <v>3</v>
       </c>
       <c r="C44" t="n">
-        <v>116.8050000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -1491,7 +1826,7 @@
         <v>4</v>
       </c>
       <c r="C45" t="n">
-        <v>101.3100000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -1502,7 +1837,7 @@
         <v>5</v>
       </c>
       <c r="C46" t="n">
-        <v>109.9950000000001</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1549,7 +1884,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>11.695</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1560,7 +1895,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>4.885</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1571,7 +1906,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>11.735</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1582,7 +1917,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>19.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1593,7 +1928,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>14.685</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1604,7 +1939,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>183</v>
       </c>
     </row>
     <row r="8">
@@ -1615,7 +1950,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>207</v>
       </c>
     </row>
     <row r="9">
@@ -1626,7 +1961,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>186</v>
       </c>
     </row>
     <row r="10">
@@ -1637,7 +1972,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>190</v>
       </c>
     </row>
     <row r="11">
@@ -1648,7 +1983,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>181</v>
       </c>
     </row>
     <row r="12">
@@ -1659,7 +1994,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>7.010000000000131</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1670,7 +2005,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>7.785000000000135</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1681,7 +2016,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>16.80500000000015</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1692,7 +2027,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>1.310000000000144</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1703,7 +2038,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>9.995000000000147</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1860,7 +2195,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>5.91</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13">
@@ -1871,7 +2206,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>7.145</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14">
@@ -1882,7 +2217,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>6.78</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15">
@@ -1893,7 +2228,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>7.455</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16">
@@ -1904,7 +2239,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>5.855</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17">
@@ -1915,7 +2250,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18">
@@ -1926,7 +2261,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19">
@@ -1937,7 +2272,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20">
@@ -1948,7 +2283,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21">
@@ -1959,7 +2294,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22">
@@ -2028,7 +2363,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2110,7 +2445,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B7" t="n">
         <v>1</v>
@@ -2121,7 +2456,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B8" t="n">
         <v>2</v>
@@ -2132,7 +2467,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B9" t="n">
         <v>3</v>
@@ -2143,7 +2478,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B10" t="n">
         <v>4</v>
@@ -2154,12 +2489,122 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B11" t="n">
         <v>5</v>
       </c>
       <c r="C11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>4</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>4</v>
+      </c>
+      <c r="B13" t="n">
+        <v>2</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>4</v>
+      </c>
+      <c r="B14" t="n">
+        <v>3</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>4</v>
+      </c>
+      <c r="B15" t="n">
+        <v>4</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>4</v>
+      </c>
+      <c r="B16" t="n">
+        <v>5</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>5</v>
+      </c>
+      <c r="B17" t="n">
+        <v>1</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>5</v>
+      </c>
+      <c r="B18" t="n">
+        <v>2</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>5</v>
+      </c>
+      <c r="B19" t="n">
+        <v>3</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>5</v>
+      </c>
+      <c r="B20" t="n">
+        <v>4</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>5</v>
+      </c>
+      <c r="B21" t="n">
+        <v>5</v>
+      </c>
+      <c r="C21" t="n">
         <v>1</v>
       </c>
     </row>
